--- a/SchedulingData/static7/pso/scheduling1_15.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_15.xlsx
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.44</v>
+        <v>70.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.736</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.6</v>
+        <v>57.32</v>
       </c>
       <c r="E3" t="n">
-        <v>25.14</v>
+        <v>26.928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.12</v>
+        <v>63.98</v>
       </c>
       <c r="E4" t="n">
-        <v>21.708</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>63.98</v>
       </c>
       <c r="D5" t="n">
-        <v>71.31999999999999</v>
+        <v>133.86</v>
       </c>
       <c r="E5" t="n">
-        <v>25.528</v>
+        <v>22.904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71.31999999999999</v>
+        <v>133.86</v>
       </c>
       <c r="D6" t="n">
-        <v>148.32</v>
+        <v>201.28</v>
       </c>
       <c r="E6" t="n">
-        <v>21.448</v>
+        <v>19.252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.4</v>
+        <v>81.5</v>
       </c>
       <c r="E7" t="n">
-        <v>25.06</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>84.90000000000001</v>
+        <v>79.86</v>
       </c>
       <c r="E8" t="n">
-        <v>24.68</v>
+        <v>25.684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148.32</v>
+        <v>79.86</v>
       </c>
       <c r="D9" t="n">
-        <v>205.42</v>
+        <v>161.76</v>
       </c>
       <c r="E9" t="n">
-        <v>18.368</v>
+        <v>21.604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>106.12</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>176.48</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>17.292</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="11">
@@ -637,283 +637,283 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.44</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>115.68</v>
+        <v>115.5</v>
       </c>
       <c r="E11" t="n">
-        <v>23.712</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84.90000000000001</v>
+        <v>161.76</v>
       </c>
       <c r="D12" t="n">
-        <v>130.3</v>
+        <v>206.6</v>
       </c>
       <c r="E12" t="n">
-        <v>20.78</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>56.4</v>
+        <v>115.5</v>
       </c>
       <c r="D13" t="n">
-        <v>131.9</v>
+        <v>155.92</v>
       </c>
       <c r="E13" t="n">
-        <v>20.12</v>
+        <v>17.868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>130.3</v>
+        <v>70.7</v>
       </c>
       <c r="D14" t="n">
-        <v>194.04</v>
+        <v>112.72</v>
       </c>
       <c r="E14" t="n">
-        <v>16.516</v>
+        <v>23.028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>205.42</v>
+        <v>206.6</v>
       </c>
       <c r="D15" t="n">
-        <v>246.36</v>
+        <v>279.94</v>
       </c>
       <c r="E15" t="n">
-        <v>15.404</v>
+        <v>14.516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>194.04</v>
+        <v>155.92</v>
       </c>
       <c r="D16" t="n">
-        <v>266.72</v>
+        <v>208.62</v>
       </c>
       <c r="E16" t="n">
-        <v>11.368</v>
+        <v>13.728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115.68</v>
+        <v>57.32</v>
       </c>
       <c r="D17" t="n">
-        <v>171.64</v>
+        <v>115.22</v>
       </c>
       <c r="E17" t="n">
-        <v>19.736</v>
+        <v>22.768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>115.22</v>
       </c>
       <c r="D18" t="n">
-        <v>97.92</v>
+        <v>186.76</v>
       </c>
       <c r="E18" t="n">
-        <v>26.348</v>
+        <v>19.744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>266.72</v>
+        <v>279.94</v>
       </c>
       <c r="D19" t="n">
-        <v>329.74</v>
+        <v>317.74</v>
       </c>
       <c r="E19" t="n">
-        <v>7.676</v>
+        <v>11.876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>246.36</v>
+        <v>112.72</v>
       </c>
       <c r="D20" t="n">
-        <v>294.62</v>
+        <v>161.56</v>
       </c>
       <c r="E20" t="n">
-        <v>11.708</v>
+        <v>19.764</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>171.64</v>
+        <v>201.28</v>
       </c>
       <c r="D21" t="n">
-        <v>233.2</v>
+        <v>281.64</v>
       </c>
       <c r="E21" t="n">
-        <v>16.2</v>
+        <v>14.836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>329.74</v>
+        <v>317.74</v>
       </c>
       <c r="D22" t="n">
-        <v>400.94</v>
+        <v>384.04</v>
       </c>
       <c r="E22" t="n">
-        <v>4.156</v>
+        <v>8.356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>97.92</v>
+        <v>186.76</v>
       </c>
       <c r="D23" t="n">
-        <v>162.18</v>
+        <v>241.46</v>
       </c>
       <c r="E23" t="n">
-        <v>22.032</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>131.9</v>
+        <v>241.46</v>
       </c>
       <c r="D24" t="n">
-        <v>216.78</v>
+        <v>302.08</v>
       </c>
       <c r="E24" t="n">
-        <v>15.752</v>
+        <v>12.952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>216.78</v>
+        <v>81.5</v>
       </c>
       <c r="D25" t="n">
-        <v>307.48</v>
+        <v>147.94</v>
       </c>
       <c r="E25" t="n">
-        <v>9.811999999999999</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>294.62</v>
+        <v>147.94</v>
       </c>
       <c r="D26" t="n">
-        <v>349.36</v>
+        <v>188.54</v>
       </c>
       <c r="E26" t="n">
-        <v>8.364000000000001</v>
+        <v>18.556</v>
       </c>
     </row>
     <row r="27">
@@ -941,74 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>176.48</v>
+        <v>161.56</v>
       </c>
       <c r="D27" t="n">
-        <v>218.08</v>
+        <v>242.48</v>
       </c>
       <c r="E27" t="n">
-        <v>13.772</v>
+        <v>15.292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>233.2</v>
+        <v>188.54</v>
       </c>
       <c r="D28" t="n">
-        <v>309.3</v>
+        <v>249.48</v>
       </c>
       <c r="E28" t="n">
-        <v>12.72</v>
+        <v>15.592</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>349.36</v>
+        <v>384.04</v>
       </c>
       <c r="D29" t="n">
-        <v>396</v>
+        <v>428.94</v>
       </c>
       <c r="E29" t="n">
-        <v>5.34</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>218.08</v>
+        <v>249.48</v>
       </c>
       <c r="D30" t="n">
-        <v>262.98</v>
+        <v>284.64</v>
       </c>
       <c r="E30" t="n">
-        <v>10.412</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="31">
@@ -1017,41 +1017,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>262.98</v>
+        <v>242.48</v>
       </c>
       <c r="D31" t="n">
-        <v>350.78</v>
+        <v>296.08</v>
       </c>
       <c r="E31" t="n">
-        <v>6.252</v>
+        <v>11.572</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>396</v>
+        <v>428.94</v>
       </c>
       <c r="D32" t="n">
-        <v>446.5</v>
+        <v>494.54</v>
       </c>
       <c r="E32" t="n">
-        <v>1.42</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>446.5</v>
+        <v>494.54</v>
       </c>
       <c r="D33" t="n">
-        <v>545.16</v>
+        <v>581.13</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,344 +1070,344 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>400.94</v>
+        <v>208.62</v>
       </c>
       <c r="D34" t="n">
-        <v>468</v>
+        <v>276.4</v>
       </c>
       <c r="E34" t="n">
-        <v>1.56</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>468</v>
+        <v>276.4</v>
       </c>
       <c r="D35" t="n">
-        <v>561.48</v>
+        <v>322.9</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>307.48</v>
+        <v>284.64</v>
       </c>
       <c r="D36" t="n">
-        <v>393.42</v>
+        <v>337.86</v>
       </c>
       <c r="E36" t="n">
-        <v>5.288</v>
+        <v>9.523999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>561.48</v>
+        <v>581.13</v>
       </c>
       <c r="D37" t="n">
-        <v>624.58</v>
+        <v>635.73</v>
       </c>
       <c r="E37" t="n">
-        <v>25.86</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>624.58</v>
+        <v>337.86</v>
       </c>
       <c r="D38" t="n">
-        <v>680.78</v>
+        <v>381.22</v>
       </c>
       <c r="E38" t="n">
-        <v>21.86</v>
+        <v>5.828</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>162.18</v>
+        <v>381.22</v>
       </c>
       <c r="D39" t="n">
-        <v>231.46</v>
+        <v>418.48</v>
       </c>
       <c r="E39" t="n">
-        <v>18.204</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>680.78</v>
+        <v>296.08</v>
       </c>
       <c r="D40" t="n">
-        <v>738.1799999999999</v>
+        <v>370.68</v>
       </c>
       <c r="E40" t="n">
-        <v>19.22</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>393.42</v>
+        <v>370.68</v>
       </c>
       <c r="D41" t="n">
-        <v>443.42</v>
+        <v>431.78</v>
       </c>
       <c r="E41" t="n">
-        <v>2.928</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>545.16</v>
+        <v>302.08</v>
       </c>
       <c r="D42" t="n">
-        <v>607.48</v>
+        <v>358.04</v>
       </c>
       <c r="E42" t="n">
-        <v>26.928</v>
+        <v>8.976000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>309.3</v>
+        <v>281.64</v>
       </c>
       <c r="D43" t="n">
-        <v>369.72</v>
+        <v>350.28</v>
       </c>
       <c r="E43" t="n">
-        <v>9.808</v>
+        <v>10.572</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>350.78</v>
+        <v>322.9</v>
       </c>
       <c r="D44" t="n">
-        <v>414.28</v>
+        <v>392</v>
       </c>
       <c r="E44" t="n">
-        <v>2.532</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>231.46</v>
+        <v>392</v>
       </c>
       <c r="D45" t="n">
-        <v>293.66</v>
+        <v>466.44</v>
       </c>
       <c r="E45" t="n">
-        <v>15.564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>293.66</v>
+        <v>358.04</v>
       </c>
       <c r="D46" t="n">
-        <v>342.76</v>
+        <v>433.44</v>
       </c>
       <c r="E46" t="n">
-        <v>11.784</v>
+        <v>4.036</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>342.76</v>
+        <v>466.44</v>
       </c>
       <c r="D47" t="n">
-        <v>407.86</v>
+        <v>509.74</v>
       </c>
       <c r="E47" t="n">
-        <v>8.864000000000001</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>414.28</v>
+        <v>350.28</v>
       </c>
       <c r="D48" t="n">
-        <v>469.24</v>
+        <v>426.32</v>
       </c>
       <c r="E48" t="n">
-        <v>0.156</v>
+        <v>7.548</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>469.24</v>
+        <v>433.44</v>
       </c>
       <c r="D49" t="n">
-        <v>575.33</v>
+        <v>500</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>369.72</v>
+        <v>500</v>
       </c>
       <c r="D50" t="n">
-        <v>428.04</v>
+        <v>585.8</v>
       </c>
       <c r="E50" t="n">
-        <v>6.616</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>407.86</v>
+        <v>431.78</v>
       </c>
       <c r="D51" t="n">
-        <v>464.68</v>
+        <v>475</v>
       </c>
       <c r="E51" t="n">
-        <v>5.792</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="52">
@@ -1416,36 +1416,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>575.33</v>
+        <v>475</v>
       </c>
       <c r="D52" t="n">
-        <v>624.67</v>
+        <v>561.72</v>
       </c>
       <c r="E52" t="n">
-        <v>26.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>624.67</v>
+        <v>426.32</v>
       </c>
       <c r="D53" t="n">
-        <v>665.09</v>
+        <v>508.36</v>
       </c>
       <c r="E53" t="n">
-        <v>23.344</v>
+        <v>4.424</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>428.04</v>
+        <v>509.74</v>
       </c>
       <c r="D54" t="n">
-        <v>481.62</v>
+        <v>588.8200000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>3.888</v>
+        <v>23.532</v>
       </c>
     </row>
     <row r="55">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>464.68</v>
+        <v>508.36</v>
       </c>
       <c r="D55" t="n">
-        <v>523.58</v>
+        <v>578.6799999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>2.512</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="56">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>523.58</v>
+        <v>578.6799999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>590.46</v>
+        <v>657.46</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1507,45 +1507,45 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>590.46</v>
+        <v>588.8200000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>643.7</v>
+        <v>626.02</v>
       </c>
       <c r="E57" t="n">
-        <v>26.876</v>
+        <v>20.452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>481.62</v>
+        <v>418.48</v>
       </c>
       <c r="D58" t="n">
-        <v>542.98</v>
+        <v>463.18</v>
       </c>
       <c r="E58" t="n">
-        <v>0.352</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>542.98</v>
+        <v>463.18</v>
       </c>
       <c r="D59" t="n">
-        <v>643.58</v>
+        <v>572.74</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1564,21 +1564,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>443.42</v>
+        <v>572.74</v>
       </c>
       <c r="D60" t="n">
-        <v>553.86</v>
+        <v>647.64</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="61">
@@ -1587,22 +1587,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>553.86</v>
+        <v>635.73</v>
       </c>
       <c r="D61" t="n">
-        <v>623.96</v>
+        <v>701.99</v>
       </c>
       <c r="E61" t="n">
-        <v>26.64</v>
+        <v>22.684</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1610,32 +1610,32 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>607.48</v>
+        <v>561.72</v>
       </c>
       <c r="D62" t="n">
-        <v>662.24</v>
+        <v>626.6799999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>24.072</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>662.24</v>
+        <v>626.6799999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>755.84</v>
+        <v>682.1799999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>20.292</v>
+        <v>23.224</v>
       </c>
     </row>
   </sheetData>
